--- a/biology/Botanique/Linum_vernale/Linum_vernale.xlsx
+++ b/biology/Botanique/Linum_vernale/Linum_vernale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linum vernale est une espèce de plantes à fleurs de la famille des Linaceae. C'est une petite plante herbacée du sud des États-Unis et du nord du Mexique.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante érigée très grêle mesure de 10 à 50 cm de hauteur. Les feuilles, d'environ 1,3 cm de long, sont très étroites[1].
-Appareil reproducteur
-La floraison a lieu entre mars et octobre.
-L'inflorescence se présente comme une fleur isolée à l'extrémité des rameaux. Les fleurs sont en forme de bol, jaune orangé, avec le centre rouge sombre. Elles mesurent 2 cm de diamètre[1] et présentent un calice formé de sépales lancéolés, dont la bordure dentée est glanduleuse. La corolle possède 5 pétales soudés à la base, qui tombent ensemble à maturité et peuvent être ainsi emportés par le vent comme une petite coupe délicate en papier. Le style unique se divise en 5 stigmates.
-Le fruit est une capsule à 5 loges, chacune s'ouvrant par le sommet.
-Espèce similaire
-Une espèce proche, Linum neomexicanum, a une fleur entièrement jaune.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante érigée très grêle mesure de 10 à 50 cm de hauteur. Les feuilles, d'environ 1,3 cm de long, sont très étroites.
 </t>
         </is>
       </c>
@@ -546,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Linum vernale vit dans le sud des États-Unis (sud du Nouveau-Mexique, ouest du Texas) et au nord du Mexique, plus particulièrement dans certaines zones du désert de Chihuahua.
-Cette espèce pousse dans les déserts, sur sol rocailleux et plutôt calcaire.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et octobre.
+L'inflorescence se présente comme une fleur isolée à l'extrémité des rameaux. Les fleurs sont en forme de bol, jaune orangé, avec le centre rouge sombre. Elles mesurent 2 cm de diamètre et présentent un calice formé de sépales lancéolés, dont la bordure dentée est glanduleuse. La corolle possède 5 pétales soudés à la base, qui tombent ensemble à maturité et peuvent être ainsi emportés par le vent comme une petite coupe délicate en papier. Le style unique se divise en 5 stigmates.
+Le fruit est une capsule à 5 loges, chacune s'ouvrant par le sommet.
 </t>
         </is>
       </c>
@@ -578,10 +596,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce similaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une espèce proche, Linum neomexicanum, a une fleur entièrement jaune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Linum_vernale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linum_vernale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linum vernale vit dans le sud des États-Unis (sud du Nouveau-Mexique, ouest du Texas) et au nord du Mexique, plus particulièrement dans certaines zones du désert de Chihuahua.
+Cette espèce pousse dans les déserts, sur sol rocailleux et plutôt calcaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Linum_vernale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Linum_vernale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
